--- a/data/positive_signals/Indirectly connected (A-X-B) - clavulanic acid - drug-induced liver injury.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - clavulanic acid - drug-induced liver injury.xlsx
@@ -173,31 +173,142 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>527091</t>
+  </si>
+  <si>
+    <t>liver diseases</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>636875</t>
+  </si>
+  <si>
+    <t>drug-induced liver injury</t>
+  </si>
+  <si>
+    <t>60496323</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>138224428</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>62230399</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>86089</t>
+  </si>
+  <si>
+    <t>clavulanate potassium</t>
+  </si>
+  <si>
+    <t>137904619</t>
+  </si>
+  <si>
+    <t>62331518</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>137241910</t>
+  </si>
+  <si>
+    <t>converts to</t>
+  </si>
+  <si>
+    <t>137904616</t>
+  </si>
+  <si>
+    <t>14299962</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>4416196</t>
+  </si>
+  <si>
+    <t>amoxicillin / clavulanate</t>
+  </si>
+  <si>
+    <t>67273421</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>94174235</t>
+  </si>
+  <si>
+    <t>67273144</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>137904594</t>
+  </si>
+  <si>
+    <t>94997107</t>
+  </si>
+  <si>
+    <t>67273118</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>67273348</t>
+  </si>
+  <si>
+    <t>13881583</t>
+  </si>
+  <si>
+    <t>5098374</t>
+  </si>
+  <si>
+    <t>clavulanate</t>
+  </si>
+  <si>
+    <t>137904606</t>
+  </si>
+  <si>
+    <t>69803465</t>
+  </si>
+  <si>
+    <t>64312701</t>
+  </si>
+  <si>
+    <t>77331532</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>14299939</t>
+  </si>
+  <si>
     <t>819062</t>
   </si>
   <si>
     <t>brl-14151</t>
   </si>
   <si>
-    <t>636875</t>
-  </si>
-  <si>
-    <t>drug-induced liver injury</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>204087155</t>
-  </si>
-  <si>
-    <t>is parent of</t>
-  </si>
-  <si>
-    <t>80508732</t>
-  </si>
-  <si>
-    <t>indicates</t>
+    <t>137904650</t>
+  </si>
+  <si>
+    <t>14299935</t>
   </si>
   <si>
     <t>715646</t>
@@ -206,10 +317,10 @@
     <t>clavulanic acid, monosodium salt</t>
   </si>
   <si>
-    <t>204087140</t>
-  </si>
-  <si>
-    <t>80508764</t>
+    <t>137904635</t>
+  </si>
+  <si>
+    <t>14299954</t>
   </si>
   <si>
     <t>2564956</t>
@@ -218,79 +329,37 @@
     <t>mm-14151</t>
   </si>
   <si>
-    <t>204087172</t>
-  </si>
-  <si>
-    <t>80508740</t>
-  </si>
-  <si>
-    <t>86089</t>
-  </si>
-  <si>
-    <t>clavulanate potassium</t>
-  </si>
-  <si>
-    <t>204087109</t>
-  </si>
-  <si>
-    <t>128724308</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>204087107</t>
-  </si>
-  <si>
-    <t>converts to</t>
-  </si>
-  <si>
-    <t>203428615</t>
-  </si>
-  <si>
-    <t>80508772</t>
-  </si>
-  <si>
-    <t>4416196</t>
-  </si>
-  <si>
-    <t>amoxicillin / clavulanate</t>
-  </si>
-  <si>
-    <t>133663570</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>161188743</t>
-  </si>
-  <si>
-    <t>133663709</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>204087079</t>
-  </si>
-  <si>
-    <t>160346786</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>133663731</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>133663554</t>
-  </si>
-  <si>
-    <t>80163835</t>
+    <t>137904667</t>
+  </si>
+  <si>
+    <t>14299929</t>
+  </si>
+  <si>
+    <t>2422274</t>
+  </si>
+  <si>
+    <t>augmentin</t>
+  </si>
+  <si>
+    <t>75351995</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>108601816</t>
+  </si>
+  <si>
+    <t>86682996</t>
+  </si>
+  <si>
+    <t>78681901</t>
+  </si>
+  <si>
+    <t>51441854</t>
+  </si>
+  <si>
+    <t>13881599</t>
   </si>
   <si>
     <t>493765</t>
@@ -299,43 +368,16 @@
     <t>brl-25000</t>
   </si>
   <si>
-    <t>137973167</t>
-  </si>
-  <si>
-    <t>137616478</t>
-  </si>
-  <si>
-    <t>122609396</t>
-  </si>
-  <si>
-    <t>80163867</t>
-  </si>
-  <si>
-    <t>2422274</t>
-  </si>
-  <si>
-    <t>augmentin</t>
-  </si>
-  <si>
-    <t>174727806</t>
-  </si>
-  <si>
-    <t>117659527</t>
-  </si>
-  <si>
-    <t>151184305</t>
-  </si>
-  <si>
-    <t>141684211</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>142942180</t>
-  </si>
-  <si>
-    <t>80163857</t>
+    <t>71654273</t>
+  </si>
+  <si>
+    <t>56225821</t>
+  </si>
+  <si>
+    <t>71299048</t>
+  </si>
+  <si>
+    <t>13881606</t>
   </si>
   <si>
     <t>2364483</t>
@@ -344,10 +386,10 @@
     <t>spektramox</t>
   </si>
   <si>
-    <t>175108877</t>
-  </si>
-  <si>
-    <t>80163813</t>
+    <t>108930352</t>
+  </si>
+  <si>
+    <t>13881566</t>
   </si>
   <si>
     <t>5796571</t>
@@ -356,28 +398,28 @@
     <t>rifampin</t>
   </si>
   <si>
-    <t>119023415</t>
-  </si>
-  <si>
-    <t>82588066</t>
+    <t>56566820</t>
+  </si>
+  <si>
+    <t>16338494</t>
+  </si>
+  <si>
+    <t>16339034</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>82587526</t>
-  </si>
-  <si>
     <t>3814648</t>
   </si>
   <si>
     <t>trimethoprim-sulfamethoxazole combination</t>
   </si>
   <si>
-    <t>134734524</t>
-  </si>
-  <si>
-    <t>83045070</t>
+    <t>68243186</t>
+  </si>
+  <si>
+    <t>16797204</t>
   </si>
   <si>
     <t>1937679</t>
@@ -386,10 +428,25 @@
     <t>drug-induced acute liver injury</t>
   </si>
   <si>
-    <t>80508758</t>
-  </si>
-  <si>
-    <t>205680182</t>
+    <t>14299951</t>
+  </si>
+  <si>
+    <t>139488056</t>
+  </si>
+  <si>
+    <t>807159</t>
+  </si>
+  <si>
+    <t>tetracycline</t>
+  </si>
+  <si>
+    <t>81861850</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>16577669</t>
   </si>
   <si>
     <t>4027409</t>
@@ -398,10 +455,10 @@
     <t>minocycline</t>
   </si>
   <si>
-    <t>193119457</t>
-  </si>
-  <si>
-    <t>80803585</t>
+    <t>126928758</t>
+  </si>
+  <si>
+    <t>14535751</t>
   </si>
   <si>
     <t>155361</t>
@@ -410,25 +467,310 @@
     <t>floxacillin</t>
   </si>
   <si>
-    <t>126607799</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>82082386</t>
-  </si>
-  <si>
-    <t>807159</t>
-  </si>
-  <si>
-    <t>tetracycline</t>
-  </si>
-  <si>
-    <t>148330176</t>
-  </si>
-  <si>
-    <t>82825874</t>
+    <t>63405117</t>
+  </si>
+  <si>
+    <t>15872009</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>60822589</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>56339004</t>
+  </si>
+  <si>
+    <t>57089536</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>52054726</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>2080587</t>
+  </si>
+  <si>
+    <t>amoxicillin</t>
+  </si>
+  <si>
+    <t>67058515</t>
+  </si>
+  <si>
+    <t>85613851</t>
+  </si>
+  <si>
+    <t>95741565</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>58913768</t>
+  </si>
+  <si>
+    <t>58465671</t>
+  </si>
+  <si>
+    <t>52474610</t>
+  </si>
+  <si>
+    <t>54334855</t>
+  </si>
+  <si>
+    <t>65626547</t>
+  </si>
+  <si>
+    <t>52607261</t>
+  </si>
+  <si>
+    <t>56944446</t>
+  </si>
+  <si>
+    <t>56440752</t>
+  </si>
+  <si>
+    <t>56262920</t>
+  </si>
+  <si>
+    <t>60328672</t>
+  </si>
+  <si>
+    <t>13875321</t>
+  </si>
+  <si>
+    <t>836198</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
+  </si>
+  <si>
+    <t>126928840</t>
+  </si>
+  <si>
+    <t>14260909</t>
+  </si>
+  <si>
+    <t>5512940</t>
+  </si>
+  <si>
+    <t>cephalothin</t>
+  </si>
+  <si>
+    <t>55388812</t>
+  </si>
+  <si>
+    <t>54626097</t>
+  </si>
+  <si>
+    <t>82526545</t>
+  </si>
+  <si>
+    <t>14108235</t>
+  </si>
+  <si>
+    <t>4042108</t>
+  </si>
+  <si>
+    <t>erythromycin</t>
+  </si>
+  <si>
+    <t>97058422</t>
+  </si>
+  <si>
+    <t>67353046</t>
+  </si>
+  <si>
+    <t>67353124</t>
+  </si>
+  <si>
+    <t>76435721</t>
+  </si>
+  <si>
+    <t>85613805</t>
+  </si>
+  <si>
+    <t>15642671</t>
+  </si>
+  <si>
+    <t>579697</t>
+  </si>
+  <si>
+    <t>ceftriaxone</t>
+  </si>
+  <si>
+    <t>82672294</t>
+  </si>
+  <si>
+    <t>98390907</t>
+  </si>
+  <si>
+    <t>107030887</t>
+  </si>
+  <si>
+    <t>98112262</t>
+  </si>
+  <si>
+    <t>14087390</t>
+  </si>
+  <si>
+    <t>4414784</t>
+  </si>
+  <si>
+    <t>chloramphenicol</t>
+  </si>
+  <si>
+    <t>123356740</t>
+  </si>
+  <si>
+    <t>131450861</t>
+  </si>
+  <si>
+    <t>14129453</t>
+  </si>
+  <si>
+    <t>400679</t>
+  </si>
+  <si>
+    <t>cloxacillin</t>
+  </si>
+  <si>
+    <t>65988453</t>
+  </si>
+  <si>
+    <t>14396392</t>
+  </si>
+  <si>
+    <t>2824923</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>77520513</t>
+  </si>
+  <si>
+    <t>15874583</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>62333033</t>
+  </si>
+  <si>
+    <t>53338089</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>66341755</t>
+  </si>
+  <si>
+    <t>5084473</t>
+  </si>
+  <si>
+    <t>ampicillin</t>
+  </si>
+  <si>
+    <t>57252831</t>
+  </si>
+  <si>
+    <t>56414833</t>
+  </si>
+  <si>
+    <t>60497044</t>
+  </si>
+  <si>
+    <t>70833407</t>
+  </si>
+  <si>
+    <t>72619338</t>
+  </si>
+  <si>
+    <t>58740557</t>
+  </si>
+  <si>
+    <t>57088320</t>
+  </si>
+  <si>
+    <t>72619612</t>
+  </si>
+  <si>
+    <t>13954963</t>
+  </si>
+  <si>
+    <t>456706</t>
+  </si>
+  <si>
+    <t>cephalexin</t>
+  </si>
+  <si>
+    <t>82672214</t>
+  </si>
+  <si>
+    <t>14105880</t>
+  </si>
+  <si>
+    <t>4042438</t>
+  </si>
+  <si>
+    <t>cholestasis</t>
+  </si>
+  <si>
+    <t>14299913</t>
+  </si>
+  <si>
+    <t>40120614</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>4035345</t>
+  </si>
+  <si>
+    <t>exanthema</t>
+  </si>
+  <si>
+    <t>14299996</t>
+  </si>
+  <si>
+    <t>40160851</t>
+  </si>
+  <si>
+    <t>3814482</t>
+  </si>
+  <si>
+    <t>pentamidine</t>
+  </si>
+  <si>
+    <t>101226805</t>
+  </si>
+  <si>
+    <t>15484650</t>
   </si>
   <si>
     <t>5646027</t>
@@ -437,118 +779,361 @@
     <t>antibiotics</t>
   </si>
   <si>
-    <t>172995282</t>
-  </si>
-  <si>
-    <t>118117903</t>
-  </si>
-  <si>
-    <t>128026389</t>
-  </si>
-  <si>
-    <t>128732795</t>
-  </si>
-  <si>
-    <t>128740235</t>
-  </si>
-  <si>
-    <t>128740288</t>
-  </si>
-  <si>
-    <t>139588361</t>
-  </si>
-  <si>
-    <t>128748531</t>
-  </si>
-  <si>
-    <t>146020521</t>
-  </si>
-  <si>
-    <t>80254372</t>
-  </si>
-  <si>
-    <t>836198</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
-  </si>
-  <si>
-    <t>193119532</t>
-  </si>
-  <si>
-    <t>80472409</t>
-  </si>
-  <si>
-    <t>5512940</t>
-  </si>
-  <si>
-    <t>cephalothin</t>
-  </si>
-  <si>
-    <t>148903844</t>
-  </si>
-  <si>
-    <t>121770418</t>
-  </si>
-  <si>
-    <t>120989788</t>
-  </si>
-  <si>
-    <t>80330191</t>
-  </si>
-  <si>
-    <t>2080587</t>
-  </si>
-  <si>
-    <t>amoxicillin</t>
-  </si>
-  <si>
-    <t>124859358</t>
-  </si>
-  <si>
-    <t>122827969</t>
-  </si>
-  <si>
-    <t>118713685</t>
-  </si>
-  <si>
-    <t>132103333</t>
-  </si>
-  <si>
-    <t>120705271</t>
-  </si>
-  <si>
-    <t>150112052</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>126745738</t>
-  </si>
-  <si>
-    <t>161944417</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>123309544</t>
-  </si>
-  <si>
-    <t>118852992</t>
-  </si>
-  <si>
-    <t>125333626</t>
-  </si>
-  <si>
-    <t>122633673</t>
-  </si>
-  <si>
-    <t>133457411</t>
-  </si>
-  <si>
-    <t>80154316</t>
+    <t>62338332</t>
+  </si>
+  <si>
+    <t>51853739</t>
+  </si>
+  <si>
+    <t>106797536</t>
+  </si>
+  <si>
+    <t>61634758</t>
+  </si>
+  <si>
+    <t>62345525</t>
+  </si>
+  <si>
+    <t>62353758</t>
+  </si>
+  <si>
+    <t>79661792</t>
+  </si>
+  <si>
+    <t>73179959</t>
+  </si>
+  <si>
+    <t>62345456</t>
+  </si>
+  <si>
+    <t>13984804</t>
+  </si>
+  <si>
+    <t>4027577</t>
+  </si>
+  <si>
+    <t>penicillins</t>
+  </si>
+  <si>
+    <t>57262113</t>
+  </si>
+  <si>
+    <t>56399379</t>
+  </si>
+  <si>
+    <t>55388572</t>
+  </si>
+  <si>
+    <t>53274702</t>
+  </si>
+  <si>
+    <t>62160783</t>
+  </si>
+  <si>
+    <t>52313522</t>
+  </si>
+  <si>
+    <t>60944927</t>
+  </si>
+  <si>
+    <t>91606581</t>
+  </si>
+  <si>
+    <t>76138330</t>
+  </si>
+  <si>
+    <t>62345984</t>
+  </si>
+  <si>
+    <t>15478214</t>
+  </si>
+  <si>
+    <t>328698</t>
+  </si>
+  <si>
+    <t>clindamycin</t>
+  </si>
+  <si>
+    <t>62335041</t>
+  </si>
+  <si>
+    <t>14300609</t>
+  </si>
+  <si>
+    <t>908195</t>
+  </si>
+  <si>
+    <t>doxycycline</t>
+  </si>
+  <si>
+    <t>98112147</t>
+  </si>
+  <si>
+    <t>97058577</t>
+  </si>
+  <si>
+    <t>15531595</t>
+  </si>
+  <si>
+    <t>5797767</t>
+  </si>
+  <si>
+    <t>probenecid</t>
+  </si>
+  <si>
+    <t>69458707</t>
+  </si>
+  <si>
+    <t>75646988</t>
+  </si>
+  <si>
+    <t>16094538</t>
+  </si>
+  <si>
+    <t>5793192</t>
+  </si>
+  <si>
+    <t>steroids</t>
+  </si>
+  <si>
+    <t>103574000</t>
+  </si>
+  <si>
+    <t>16443925</t>
+  </si>
+  <si>
+    <t>16443933</t>
+  </si>
+  <si>
+    <t>5698764</t>
+  </si>
+  <si>
+    <t>cefadroxil</t>
+  </si>
+  <si>
+    <t>89692154</t>
+  </si>
+  <si>
+    <t>14062944</t>
+  </si>
+  <si>
+    <t>5301205</t>
+  </si>
+  <si>
+    <t>anticonvulsants</t>
+  </si>
+  <si>
+    <t>91976056</t>
+  </si>
+  <si>
+    <t>13986330</t>
+  </si>
+  <si>
+    <t>528421</t>
+  </si>
+  <si>
+    <t>chlorhexidine gluconate</t>
+  </si>
+  <si>
+    <t>123660062</t>
+  </si>
+  <si>
+    <t>14137852</t>
+  </si>
+  <si>
+    <t>5108168</t>
+  </si>
+  <si>
+    <t>penicillin g</t>
+  </si>
+  <si>
+    <t>61471294</t>
+  </si>
+  <si>
+    <t>84280487</t>
+  </si>
+  <si>
+    <t>57087513</t>
+  </si>
+  <si>
+    <t>15447064</t>
+  </si>
+  <si>
+    <t>5081351</t>
+  </si>
+  <si>
+    <t>sultamicillin</t>
+  </si>
+  <si>
+    <t>87223391</t>
+  </si>
+  <si>
+    <t>87223463</t>
+  </si>
+  <si>
+    <t>16502286</t>
+  </si>
+  <si>
+    <t>4819158</t>
+  </si>
+  <si>
+    <t>cefprozil</t>
+  </si>
+  <si>
+    <t>95223382</t>
+  </si>
+  <si>
+    <t>14076790</t>
+  </si>
+  <si>
+    <t>4028714</t>
+  </si>
+  <si>
+    <t>metronidazole</t>
+  </si>
+  <si>
+    <t>70240347</t>
+  </si>
+  <si>
+    <t>67680217</t>
+  </si>
+  <si>
+    <t>67613777</t>
+  </si>
+  <si>
+    <t>14456690</t>
+  </si>
+  <si>
+    <t>4028698</t>
+  </si>
+  <si>
+    <t>morphine</t>
+  </si>
+  <si>
+    <t>129737384</t>
+  </si>
+  <si>
+    <t>14646653</t>
+  </si>
+  <si>
+    <t>4028296</t>
+  </si>
+  <si>
+    <t>piperacillin</t>
+  </si>
+  <si>
+    <t>60158347</t>
+  </si>
+  <si>
+    <t>59464896</t>
+  </si>
+  <si>
+    <t>61642192</t>
+  </si>
+  <si>
+    <t>60158453</t>
+  </si>
+  <si>
+    <t>60158640</t>
+  </si>
+  <si>
+    <t>56667523</t>
+  </si>
+  <si>
+    <t>15911398</t>
+  </si>
+  <si>
+    <t>3814201</t>
+  </si>
+  <si>
+    <t>sulfamethoxazole</t>
+  </si>
+  <si>
+    <t>95953775</t>
+  </si>
+  <si>
+    <t>16482705</t>
+  </si>
+  <si>
+    <t>3742585</t>
+  </si>
+  <si>
+    <t>anti-bacterial agents</t>
+  </si>
+  <si>
+    <t>62330847</t>
+  </si>
+  <si>
+    <t>72470601</t>
+  </si>
+  <si>
+    <t>85850670</t>
+  </si>
+  <si>
+    <t>13984814</t>
+  </si>
+  <si>
+    <t>250190</t>
+  </si>
+  <si>
+    <t>carbenicillin</t>
+  </si>
+  <si>
+    <t>53274797</t>
+  </si>
+  <si>
+    <t>57087748</t>
+  </si>
+  <si>
+    <t>65945988</t>
+  </si>
+  <si>
+    <t>61110743</t>
+  </si>
+  <si>
+    <t>13990920</t>
+  </si>
+  <si>
+    <t>2435345</t>
+  </si>
+  <si>
+    <t>metrogyl</t>
+  </si>
+  <si>
+    <t>125250495</t>
+  </si>
+  <si>
+    <t>14456581</t>
+  </si>
+  <si>
+    <t>215718</t>
+  </si>
+  <si>
+    <t>benzodiazepines</t>
+  </si>
+  <si>
+    <t>106233393</t>
+  </si>
+  <si>
+    <t>13170693</t>
+  </si>
+  <si>
+    <t>608720</t>
+  </si>
+  <si>
+    <t>communicable diseases</t>
+  </si>
+  <si>
+    <t>85617964</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>54665620</t>
+  </si>
+  <si>
+    <t>132379858</t>
   </si>
   <si>
     <t>2791782</t>
@@ -560,16 +1145,16 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>179827499</t>
-  </si>
-  <si>
-    <t>90733244</t>
+    <t>113602403</t>
+  </si>
+  <si>
+    <t>24380231</t>
   </si>
   <si>
     <t>is associated with</t>
   </si>
   <si>
-    <t>94568624</t>
+    <t>28200813</t>
   </si>
   <si>
     <t>gene product is biomarker type</t>
@@ -581,556 +1166,16 @@
     <t>med1 (homo sapiens)</t>
   </si>
   <si>
-    <t>137243036</t>
+    <t>73345585</t>
   </si>
   <si>
     <t>produces</t>
   </si>
   <si>
-    <t>94702227</t>
-  </si>
-  <si>
-    <t>90699603</t>
-  </si>
-  <si>
-    <t>579697</t>
-  </si>
-  <si>
-    <t>ceftriaxone</t>
-  </si>
-  <si>
-    <t>164586540</t>
-  </si>
-  <si>
-    <t>164311197</t>
-  </si>
-  <si>
-    <t>149045848</t>
-  </si>
-  <si>
-    <t>173218368</t>
-  </si>
-  <si>
-    <t>80305376</t>
-  </si>
-  <si>
-    <t>5098374</t>
-  </si>
-  <si>
-    <t>clavulanate</t>
-  </si>
-  <si>
-    <t>136150015</t>
-  </si>
-  <si>
-    <t>204087092</t>
-  </si>
-  <si>
-    <t>130664121</t>
-  </si>
-  <si>
-    <t>141459624</t>
-  </si>
-  <si>
-    <t>80508748</t>
-  </si>
-  <si>
-    <t>4042108</t>
-  </si>
-  <si>
-    <t>erythromycin</t>
-  </si>
-  <si>
-    <t>133742467</t>
-  </si>
-  <si>
-    <t>133742401</t>
-  </si>
-  <si>
-    <t>163258051</t>
-  </si>
-  <si>
-    <t>142780692</t>
-  </si>
-  <si>
-    <t>150111968</t>
-  </si>
-  <si>
-    <t>81865281</t>
-  </si>
-  <si>
-    <t>4414784</t>
-  </si>
-  <si>
-    <t>chloramphenicol</t>
-  </si>
-  <si>
-    <t>189560759</t>
-  </si>
-  <si>
-    <t>197610861</t>
-  </si>
-  <si>
-    <t>80350619</t>
-  </si>
-  <si>
-    <t>400679</t>
-  </si>
-  <si>
-    <t>cloxacillin</t>
-  </si>
-  <si>
-    <t>132444967</t>
-  </si>
-  <si>
-    <t>80607954</t>
-  </si>
-  <si>
-    <t>2824923</t>
-  </si>
-  <si>
-    <t>zonal</t>
-  </si>
-  <si>
-    <t>141668283</t>
-  </si>
-  <si>
-    <t>82085468</t>
-  </si>
-  <si>
-    <t>5084473</t>
-  </si>
-  <si>
-    <t>ampicillin</t>
-  </si>
-  <si>
-    <t>139008471</t>
-  </si>
-  <si>
-    <t>123473635</t>
-  </si>
-  <si>
-    <t>122803747</t>
-  </si>
-  <si>
-    <t>123430934</t>
-  </si>
-  <si>
-    <t>125114095</t>
-  </si>
-  <si>
-    <t>139008721</t>
-  </si>
-  <si>
-    <t>123636217</t>
-  </si>
-  <si>
-    <t>137251778</t>
-  </si>
-  <si>
-    <t>80219261</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>128726515</t>
-  </si>
-  <si>
-    <t>119619176</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>132831869</t>
-  </si>
-  <si>
-    <t>456706</t>
-  </si>
-  <si>
-    <t>cephalexin</t>
-  </si>
-  <si>
-    <t>149045818</t>
-  </si>
-  <si>
-    <t>80326289</t>
-  </si>
-  <si>
-    <t>4042438</t>
-  </si>
-  <si>
-    <t>cholestasis</t>
-  </si>
-  <si>
-    <t>80508714</t>
-  </si>
-  <si>
-    <t>106302311</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>4035345</t>
-  </si>
-  <si>
-    <t>exanthema</t>
-  </si>
-  <si>
-    <t>80508835</t>
-  </si>
-  <si>
-    <t>106355251</t>
-  </si>
-  <si>
-    <t>4027577</t>
-  </si>
-  <si>
-    <t>penicillins</t>
-  </si>
-  <si>
-    <t>122905944</t>
-  </si>
-  <si>
-    <t>123932014</t>
-  </si>
-  <si>
-    <t>118337408</t>
-  </si>
-  <si>
-    <t>157898078</t>
-  </si>
-  <si>
-    <t>128547660</t>
-  </si>
-  <si>
-    <t>121770215</t>
-  </si>
-  <si>
-    <t>128740760</t>
-  </si>
-  <si>
-    <t>123759963</t>
-  </si>
-  <si>
-    <t>118337287</t>
-  </si>
-  <si>
-    <t>142478736</t>
-  </si>
-  <si>
-    <t>81730797</t>
-  </si>
-  <si>
-    <t>3814482</t>
-  </si>
-  <si>
-    <t>pentamidine</t>
-  </si>
-  <si>
-    <t>167416308</t>
-  </si>
-  <si>
-    <t>81733238</t>
-  </si>
-  <si>
-    <t>4028714</t>
-  </si>
-  <si>
-    <t>metronidazole</t>
-  </si>
-  <si>
-    <t>134076263</t>
-  </si>
-  <si>
-    <t>134003004</t>
-  </si>
-  <si>
-    <t>136633803</t>
-  </si>
-  <si>
-    <t>80712235</t>
-  </si>
-  <si>
-    <t>328698</t>
-  </si>
-  <si>
-    <t>clindamycin</t>
-  </si>
-  <si>
-    <t>128729073</t>
-  </si>
-  <si>
-    <t>80510910</t>
-  </si>
-  <si>
-    <t>908195</t>
-  </si>
-  <si>
-    <t>doxycycline</t>
-  </si>
-  <si>
-    <t>164311074</t>
-  </si>
-  <si>
-    <t>163258195</t>
-  </si>
-  <si>
-    <t>81741541</t>
-  </si>
-  <si>
-    <t>5797767</t>
-  </si>
-  <si>
-    <t>probenecid</t>
-  </si>
-  <si>
-    <t>142082806</t>
-  </si>
-  <si>
-    <t>135895603</t>
-  </si>
-  <si>
-    <t>82340578</t>
-  </si>
-  <si>
-    <t>5793192</t>
-  </si>
-  <si>
-    <t>steroids</t>
-  </si>
-  <si>
-    <t>169684902</t>
-  </si>
-  <si>
-    <t>82692452</t>
-  </si>
-  <si>
-    <t>82692444</t>
-  </si>
-  <si>
-    <t>5698764</t>
-  </si>
-  <si>
-    <t>cefadroxil</t>
-  </si>
-  <si>
-    <t>155963650</t>
-  </si>
-  <si>
-    <t>80267871</t>
-  </si>
-  <si>
-    <t>5301205</t>
-  </si>
-  <si>
-    <t>anticonvulsants</t>
-  </si>
-  <si>
-    <t>158100002</t>
-  </si>
-  <si>
-    <t>80256459</t>
-  </si>
-  <si>
-    <t>528421</t>
-  </si>
-  <si>
-    <t>chlorhexidine gluconate</t>
-  </si>
-  <si>
-    <t>189799124</t>
-  </si>
-  <si>
-    <t>80361849</t>
-  </si>
-  <si>
-    <t>5108168</t>
-  </si>
-  <si>
-    <t>penicillin g</t>
-  </si>
-  <si>
-    <t>127862389</t>
-  </si>
-  <si>
-    <t>148782015</t>
-  </si>
-  <si>
-    <t>123473218</t>
-  </si>
-  <si>
-    <t>81717166</t>
-  </si>
-  <si>
-    <t>5081351</t>
-  </si>
-  <si>
-    <t>sultamicillin</t>
-  </si>
-  <si>
-    <t>153543564</t>
-  </si>
-  <si>
-    <t>153543613</t>
-  </si>
-  <si>
-    <t>82750671</t>
-  </si>
-  <si>
-    <t>4819158</t>
-  </si>
-  <si>
-    <t>cefprozil</t>
-  </si>
-  <si>
-    <t>161426455</t>
-  </si>
-  <si>
-    <t>80286956</t>
-  </si>
-  <si>
-    <t>4028698</t>
-  </si>
-  <si>
-    <t>morphine</t>
-  </si>
-  <si>
-    <t>195942367</t>
-  </si>
-  <si>
-    <t>80900238</t>
-  </si>
-  <si>
-    <t>4028296</t>
-  </si>
-  <si>
-    <t>piperacillin</t>
-  </si>
-  <si>
-    <t>126585877</t>
-  </si>
-  <si>
-    <t>125893425</t>
-  </si>
-  <si>
-    <t>128090609</t>
-  </si>
-  <si>
-    <t>123107897</t>
-  </si>
-  <si>
-    <t>126585802</t>
-  </si>
-  <si>
-    <t>126586057</t>
-  </si>
-  <si>
-    <t>82173312</t>
-  </si>
-  <si>
-    <t>3814201</t>
-  </si>
-  <si>
-    <t>sulfamethoxazole</t>
-  </si>
-  <si>
-    <t>162155696</t>
-  </si>
-  <si>
-    <t>82731136</t>
-  </si>
-  <si>
-    <t>3742585</t>
-  </si>
-  <si>
-    <t>anti-bacterial agents</t>
-  </si>
-  <si>
-    <t>150349702</t>
-  </si>
-  <si>
-    <t>138886486</t>
-  </si>
-  <si>
-    <t>128723818</t>
-  </si>
-  <si>
-    <t>80254395</t>
-  </si>
-  <si>
-    <t>250190</t>
-  </si>
-  <si>
-    <t>carbenicillin</t>
-  </si>
-  <si>
-    <t>127504407</t>
-  </si>
-  <si>
-    <t>129274436</t>
-  </si>
-  <si>
-    <t>123473395</t>
-  </si>
-  <si>
-    <t>119560821</t>
-  </si>
-  <si>
-    <t>80195960</t>
-  </si>
-  <si>
-    <t>2435345</t>
-  </si>
-  <si>
-    <t>metrogyl</t>
-  </si>
-  <si>
-    <t>191461898</t>
-  </si>
-  <si>
-    <t>80712139</t>
-  </si>
-  <si>
-    <t>215718</t>
-  </si>
-  <si>
-    <t>benzodiazepines</t>
-  </si>
-  <si>
-    <t>172445934</t>
-  </si>
-  <si>
-    <t>79487151</t>
-  </si>
-  <si>
-    <t>608720</t>
-  </si>
-  <si>
-    <t>communicable diseases</t>
-  </si>
-  <si>
-    <t>150115990</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>121005355</t>
-  </si>
-  <si>
-    <t>198570042</t>
-  </si>
-  <si>
-    <t>causes</t>
+    <t>24346270</t>
+  </si>
+  <si>
+    <t>28327944</t>
   </si>
   <si>
     <t>5284875</t>
@@ -1139,55 +1184,106 @@
     <t>respiratory tract infections</t>
   </si>
   <si>
-    <t>131123626</t>
-  </si>
-  <si>
-    <t>106302582</t>
-  </si>
-  <si>
-    <t>527091</t>
-  </si>
-  <si>
-    <t>liver diseases</t>
-  </si>
-  <si>
-    <t>126984666</t>
-  </si>
-  <si>
-    <t>204427697</t>
-  </si>
-  <si>
-    <t>128610844</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>127256640</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>119391096</t>
-  </si>
-  <si>
-    <t>123529137</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>118295831</t>
-  </si>
-  <si>
-    <t>is not process of</t>
+    <t>64746259</t>
+  </si>
+  <si>
+    <t>40121052</t>
+  </si>
+  <si>
+    <t>5096586</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>112859086</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>53444330</t>
+  </si>
+  <si>
+    <t>53342946</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>40164534</t>
+  </si>
+  <si>
+    <t>4048118</t>
+  </si>
+  <si>
+    <t>icterus</t>
+  </si>
+  <si>
+    <t>81772201</t>
+  </si>
+  <si>
+    <t>92696125</t>
+  </si>
+  <si>
+    <t>40120581</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>91975969</t>
+  </si>
+  <si>
+    <t>91975782</t>
+  </si>
+  <si>
+    <t>40083638</t>
+  </si>
+  <si>
+    <t>3760890</t>
+  </si>
+  <si>
+    <t>sepsis</t>
+  </si>
+  <si>
+    <t>57041073</t>
+  </si>
+  <si>
+    <t>40084086</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>55317378</t>
+  </si>
+  <si>
+    <t>62844863</t>
+  </si>
+  <si>
+    <t>52189301</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>70242382</t>
+  </si>
+  <si>
+    <t>56903123</t>
+  </si>
+  <si>
+    <t>40164165</t>
   </si>
   <si>
     <t>4033983</t>
@@ -1196,124 +1292,28 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>128262658</t>
-  </si>
-  <si>
-    <t>129715021</t>
-  </si>
-  <si>
-    <t>125370028</t>
-  </si>
-  <si>
-    <t>172995241</t>
-  </si>
-  <si>
-    <t>145398167</t>
-  </si>
-  <si>
-    <t>126147655</t>
-  </si>
-  <si>
-    <t>154304911</t>
-  </si>
-  <si>
-    <t>138801081</t>
-  </si>
-  <si>
-    <t>5096586</t>
-  </si>
-  <si>
-    <t>pneumonia</t>
-  </si>
-  <si>
-    <t>119649748</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>179033355</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>119760949</t>
-  </si>
-  <si>
-    <t>106359525</t>
-  </si>
-  <si>
-    <t>4048118</t>
-  </si>
-  <si>
-    <t>icterus</t>
-  </si>
-  <si>
-    <t>148234491</t>
-  </si>
-  <si>
-    <t>158923199</t>
-  </si>
-  <si>
-    <t>106302305</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>158099757</t>
-  </si>
-  <si>
-    <t>158099950</t>
-  </si>
-  <si>
-    <t>106278735</t>
-  </si>
-  <si>
-    <t>3760890</t>
-  </si>
-  <si>
-    <t>sepsis</t>
-  </si>
-  <si>
-    <t>123469162</t>
-  </si>
-  <si>
-    <t>106279318</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>121698895</t>
-  </si>
-  <si>
-    <t>129217376</t>
-  </si>
-  <si>
-    <t>118464333</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>136564765</t>
-  </si>
-  <si>
-    <t>119391338</t>
-  </si>
-  <si>
-    <t>106359184</t>
+    <t>59760513</t>
+  </si>
+  <si>
+    <t>78945273</t>
+  </si>
+  <si>
+    <t>63232234</t>
+  </si>
+  <si>
+    <t>58952384</t>
+  </si>
+  <si>
+    <t>106797480</t>
+  </si>
+  <si>
+    <t>61861106</t>
+  </si>
+  <si>
+    <t>72422109</t>
+  </si>
+  <si>
+    <t>88101354</t>
   </si>
   <si>
     <t>3737354</t>
@@ -1322,10 +1322,43 @@
     <t>prophylactic treatment</t>
   </si>
   <si>
-    <t>119652705</t>
-  </si>
-  <si>
-    <t>182934433</t>
+    <t>53333440</t>
+  </si>
+  <si>
+    <t>116738605</t>
+  </si>
+  <si>
+    <t>3224288</t>
+  </si>
+  <si>
+    <t>host (organism)</t>
+  </si>
+  <si>
+    <t>66629603</t>
+  </si>
+  <si>
+    <t>82691348</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>120259150</t>
+  </si>
+  <si>
+    <t>217103</t>
+  </si>
+  <si>
+    <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
+  </si>
+  <si>
+    <t>112913122</t>
+  </si>
+  <si>
+    <t>81198931</t>
+  </si>
+  <si>
+    <t>93997877</t>
   </si>
   <si>
     <t>111084</t>
@@ -1334,55 +1367,22 @@
     <t>genes</t>
   </si>
   <si>
-    <t>180892648</t>
-  </si>
-  <si>
-    <t>163018855</t>
-  </si>
-  <si>
-    <t>157637091</t>
-  </si>
-  <si>
-    <t>176984953</t>
-  </si>
-  <si>
-    <t>134615895</t>
-  </si>
-  <si>
-    <t>171304324</t>
-  </si>
-  <si>
-    <t>3224288</t>
-  </si>
-  <si>
-    <t>host (organism)</t>
-  </si>
-  <si>
-    <t>133051257</t>
-  </si>
-  <si>
-    <t>149066504</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>186468435</t>
-  </si>
-  <si>
-    <t>217103</t>
-  </si>
-  <si>
-    <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
-  </si>
-  <si>
-    <t>179086481</t>
-  </si>
-  <si>
-    <t>145627241</t>
-  </si>
-  <si>
-    <t>160167769</t>
+    <t>110793338</t>
+  </si>
+  <si>
+    <t>114720225</t>
+  </si>
+  <si>
+    <t>91450270</t>
+  </si>
+  <si>
+    <t>96814089</t>
+  </si>
+  <si>
+    <t>68200347</t>
+  </si>
+  <si>
+    <t>105089943</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>649.0</v>
+        <v>7591.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1605,16 +1605,16 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
@@ -1628,10 +1628,16 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>649.0</v>
+        <v>1024.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1643,39 +1649,57 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>649.0</v>
+        <v>914.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1687,39 +1711,75 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
+      <c r="U4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>632.0</v>
+        <v>774.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1731,57 +1791,57 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
         <v>73</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>170.0</v>
+        <v>649.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1793,75 +1853,39 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V6" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>165.0</v>
+        <v>649.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1873,51 +1897,39 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>165.0</v>
+        <v>649.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1929,63 +1941,39 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" t="s">
-        <v>107</v>
-      </c>
-      <c r="V8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1997,39 +1985,63 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
         <v>108</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>74</v>
       </c>
       <c r="M9" t="s">
         <v>111</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>125.0</v>
+        <v>165.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2041,45 +2053,51 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73.0</v>
+        <v>165.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2091,39 +2109,39 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>64.0</v>
+        <v>125.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2135,39 +2153,45 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2179,39 +2203,39 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>53.0</v>
+        <v>64.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2223,31 +2247,31 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s">
         <v>61</v>
@@ -2255,7 +2279,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2267,39 +2291,39 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>42.0</v>
+        <v>53.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2311,87 +2335,39 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R16" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" t="s">
-        <v>145</v>
-      </c>
-      <c r="T16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" t="s">
-        <v>146</v>
-      </c>
-      <c r="V16" t="s">
-        <v>82</v>
-      </c>
-      <c r="W16" t="s">
-        <v>147</v>
-      </c>
-      <c r="X16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>33.0</v>
+        <v>53.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2403,39 +2379,39 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
         <v>151</v>
       </c>
-      <c r="F17" t="s">
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" t="s">
-        <v>154</v>
-      </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2447,51 +2423,51 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
         <v>155</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>157</v>
-      </c>
-      <c r="L18" t="s">
-        <v>88</v>
       </c>
       <c r="M18" t="s">
         <v>158</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s">
         <v>159</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="Q18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R18" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2503,111 +2479,111 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="S19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T19" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="U19" t="s">
+        <v>171</v>
+      </c>
+      <c r="V19" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD19" t="s">
         <v>168</v>
       </c>
-      <c r="V19" t="s">
-        <v>169</v>
-      </c>
-      <c r="W19" t="s">
-        <v>170</v>
-      </c>
-      <c r="X19" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>105</v>
-      </c>
       <c r="AE19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="AG19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AH19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AJ19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL19" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2619,45 +2595,39 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
         <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
         <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O20" t="s">
-        <v>185</v>
-      </c>
-      <c r="P20" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2669,40 +2639,46 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" t="s">
         <v>187</v>
       </c>
-      <c r="F21" t="s">
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" t="s">
         <v>188</v>
       </c>
-      <c r="G21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="P21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" t="s">
         <v>189</v>
       </c>
-      <c r="L21" t="s">
-        <v>190</v>
-      </c>
-      <c r="M21" t="s">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" t="s">
-        <v>184</v>
+      <c r="R21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -2719,57 +2695,63 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" t="s">
         <v>193</v>
       </c>
-      <c r="F22" t="s">
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
         <v>194</v>
       </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" t="s">
         <v>195</v>
       </c>
-      <c r="L22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="R22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" t="s">
         <v>196</v>
       </c>
-      <c r="N22" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="T22" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s">
         <v>197</v>
       </c>
-      <c r="P22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>198</v>
-      </c>
-      <c r="R22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S22" t="s">
-        <v>199</v>
-      </c>
-      <c r="T22" t="s">
-        <v>61</v>
+      <c r="V22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2781,57 +2763,57 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" t="s">
         <v>200</v>
       </c>
-      <c r="F23" t="s">
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
         <v>201</v>
       </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="N23" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" t="s">
         <v>202</v>
       </c>
-      <c r="L23" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" t="s">
         <v>203</v>
       </c>
-      <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="R23" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" t="s">
         <v>204</v>
       </c>
-      <c r="P23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>205</v>
-      </c>
-      <c r="R23" t="s">
-        <v>169</v>
-      </c>
-      <c r="S23" t="s">
-        <v>206</v>
-      </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2843,58 +2825,40 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
         <v>207</v>
       </c>
-      <c r="F24" t="s">
+      <c r="L24" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" t="s">
         <v>208</v>
       </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="N24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" t="s">
         <v>209</v>
       </c>
-      <c r="L24" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" t="s">
-        <v>211</v>
-      </c>
       <c r="P24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>212</v>
-      </c>
-      <c r="R24" t="s">
-        <v>88</v>
-      </c>
-      <c r="S24" t="s">
-        <v>213</v>
-      </c>
-      <c r="T24" t="s">
-        <v>90</v>
-      </c>
-      <c r="U24" t="s">
-        <v>214</v>
-      </c>
-      <c r="V24" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2911,40 +2875,34 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="M25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N25" t="s">
-        <v>105</v>
-      </c>
-      <c r="O25" t="s">
-        <v>219</v>
-      </c>
-      <c r="P25" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -2961,39 +2919,39 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="M26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3005,39 +2963,45 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" t="s">
+        <v>222</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
         <v>224</v>
       </c>
-      <c r="F27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" t="s">
-        <v>227</v>
-      </c>
-      <c r="N27" t="s">
-        <v>61</v>
+      <c r="P27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3049,76 +3013,76 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" t="s">
         <v>228</v>
       </c>
-      <c r="F28" t="s">
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" t="s">
         <v>229</v>
       </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="P28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" t="s">
         <v>230</v>
       </c>
-      <c r="L28" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="R28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s">
         <v>231</v>
       </c>
-      <c r="N28" t="s">
-        <v>133</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="T28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" t="s">
         <v>232</v>
       </c>
-      <c r="P28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="V28" t="s">
+        <v>93</v>
+      </c>
+      <c r="W28" t="s">
         <v>233</v>
       </c>
-      <c r="R28" t="s">
-        <v>85</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="X28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y28" t="s">
         <v>234</v>
       </c>
-      <c r="T28" t="s">
-        <v>169</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="Z28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA28" t="s">
         <v>235</v>
       </c>
-      <c r="V28" t="s">
-        <v>169</v>
-      </c>
-      <c r="W28" t="s">
-        <v>236</v>
-      </c>
-      <c r="X28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>238</v>
-      </c>
       <c r="AB28" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -3135,40 +3099,34 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
         <v>239</v>
       </c>
-      <c r="F29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" t="s">
-        <v>243</v>
-      </c>
       <c r="N29" t="s">
-        <v>244</v>
-      </c>
-      <c r="O29" t="s">
-        <v>245</v>
-      </c>
-      <c r="P29" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -3185,34 +3143,34 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="M30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
@@ -3229,34 +3187,34 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M31" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -3273,39 +3231,39 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N32" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3317,93 +3275,87 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>258</v>
+      </c>
+      <c r="R33" t="s">
+        <v>63</v>
+      </c>
+      <c r="S33" t="s">
         <v>259</v>
       </c>
-      <c r="F33" t="s">
+      <c r="T33" t="s">
+        <v>80</v>
+      </c>
+      <c r="U33" t="s">
         <v>260</v>
       </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="V33" t="s">
+        <v>68</v>
+      </c>
+      <c r="W33" t="s">
         <v>261</v>
       </c>
-      <c r="L33" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="X33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y33" t="s">
         <v>262</v>
       </c>
-      <c r="N33" t="s">
-        <v>169</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="Z33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA33" t="s">
         <v>263</v>
       </c>
-      <c r="P33" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="AB33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" t="s">
         <v>264</v>
       </c>
-      <c r="R33" t="s">
-        <v>172</v>
-      </c>
-      <c r="S33" t="s">
-        <v>265</v>
-      </c>
-      <c r="T33" t="s">
-        <v>85</v>
-      </c>
-      <c r="U33" t="s">
-        <v>266</v>
-      </c>
-      <c r="V33" t="s">
-        <v>133</v>
-      </c>
-      <c r="W33" t="s">
-        <v>267</v>
-      </c>
-      <c r="X33" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>270</v>
-      </c>
       <c r="AD33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -3415,39 +3367,93 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" t="s">
+        <v>268</v>
+      </c>
+      <c r="N34" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>270</v>
+      </c>
+      <c r="R34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S34" t="s">
+        <v>271</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+      <c r="U34" t="s">
         <v>272</v>
       </c>
-      <c r="F34" t="s">
+      <c r="V34" t="s">
+        <v>63</v>
+      </c>
+      <c r="W34" t="s">
         <v>273</v>
       </c>
-      <c r="G34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="X34" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y34" t="s">
         <v>274</v>
       </c>
-      <c r="L34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="Z34" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA34" t="s">
         <v>275</v>
       </c>
-      <c r="N34" t="s">
-        <v>61</v>
+      <c r="AB34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -3459,51 +3465,39 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s">
-        <v>169</v>
-      </c>
-      <c r="O35" t="s">
-        <v>280</v>
-      </c>
-      <c r="P35" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>281</v>
-      </c>
-      <c r="R35" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -3524,25 +3518,31 @@
         <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
         <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
         <v>285</v>
       </c>
       <c r="N36" t="s">
-        <v>61</v>
+        <v>143</v>
+      </c>
+      <c r="O36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P36" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -3559,40 +3559,40 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G37" t="s">
         <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P37" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -3609,40 +3609,40 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
         <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="O38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P38" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39">
@@ -3659,40 +3659,34 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s">
-        <v>116</v>
-      </c>
-      <c r="O39" t="s">
-        <v>300</v>
-      </c>
-      <c r="P39" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -3718,25 +3712,25 @@
         <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
         <v>303</v>
       </c>
       <c r="L40" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M40" t="s">
         <v>304</v>
       </c>
       <c r="N40" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -3762,25 +3756,25 @@
         <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
         <v>307</v>
       </c>
       <c r="L41" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="M41" t="s">
         <v>308</v>
       </c>
       <c r="N41" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -3806,25 +3800,37 @@
         <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42" t="s">
         <v>311</v>
       </c>
       <c r="L42" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M42" t="s">
         <v>312</v>
       </c>
       <c r="N42" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="O42" t="s">
+        <v>313</v>
+      </c>
+      <c r="P42" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>314</v>
+      </c>
+      <c r="R42" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -3841,46 +3847,40 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
         <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M43" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O43" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P43" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>318</v>
-      </c>
-      <c r="R43" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -3897,40 +3897,34 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N44" t="s">
-        <v>90</v>
-      </c>
-      <c r="O44" t="s">
-        <v>323</v>
-      </c>
-      <c r="P44" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -3956,25 +3950,37 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
         <v>326</v>
       </c>
       <c r="L45" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M45" t="s">
         <v>327</v>
       </c>
       <c r="N45" t="s">
-        <v>61</v>
+        <v>93</v>
+      </c>
+      <c r="O45" t="s">
+        <v>328</v>
+      </c>
+      <c r="P45" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>329</v>
+      </c>
+      <c r="R45" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -3991,34 +3997,34 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G46" t="s">
         <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="M46" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N46" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -4035,64 +4041,64 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M47" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P47" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q47" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="R47" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="T47" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="V47" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="W47" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X47" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -4109,34 +4115,34 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M48" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -4153,46 +4159,46 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L49" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="M49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N49" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O49" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P49" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="Q49" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="R49" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -4209,52 +4215,52 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K50" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N50" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="O50" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P50" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="Q50" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="R50" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="S50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
@@ -4271,34 +4277,34 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F51" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G51" t="s">
         <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K51" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M51" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N51" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -4315,34 +4321,34 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F52" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G52" t="s">
         <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M52" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -4359,45 +4365,45 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N53" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O53" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P53" t="s">
-        <v>372</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -4409,39 +4415,45 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="H54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s">
-        <v>254</v>
+        <v>379</v>
+      </c>
+      <c r="O54" t="s">
+        <v>380</v>
+      </c>
+      <c r="P54" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -4453,45 +4465,45 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="H55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K55" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" t="s">
+        <v>386</v>
+      </c>
+      <c r="N55" t="s">
         <v>379</v>
       </c>
-      <c r="L55" t="s">
-        <v>372</v>
-      </c>
-      <c r="M55" t="s">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s">
-        <v>59</v>
-      </c>
       <c r="O55" t="s">
+        <v>387</v>
+      </c>
+      <c r="P55" t="s">
         <v>381</v>
-      </c>
-      <c r="P55" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -4503,51 +4515,39 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G56" t="s">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s">
-        <v>386</v>
+        <v>131</v>
       </c>
       <c r="M56" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s">
-        <v>116</v>
-      </c>
-      <c r="O56" t="s">
-        <v>388</v>
-      </c>
-      <c r="P56" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>390</v>
-      </c>
-      <c r="R56" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -4565,64 +4565,40 @@
         <v>393</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
         <v>394</v>
       </c>
       <c r="L57" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="M57" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N57" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="O57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P57" t="s">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="Q57" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R57" t="s">
-        <v>105</v>
-      </c>
-      <c r="S57" t="s">
-        <v>398</v>
-      </c>
-      <c r="T57" t="s">
-        <v>172</v>
-      </c>
-      <c r="U57" t="s">
-        <v>399</v>
-      </c>
-      <c r="V57" t="s">
-        <v>88</v>
-      </c>
-      <c r="W57" t="s">
-        <v>400</v>
-      </c>
-      <c r="X57" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58">
@@ -4639,46 +4615,40 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>400</v>
+      </c>
+      <c r="F58" t="s">
+        <v>401</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" t="s">
         <v>402</v>
       </c>
-      <c r="F58" t="s">
+      <c r="L58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M58" t="s">
         <v>403</v>
       </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="N58" t="s">
+        <v>63</v>
+      </c>
+      <c r="O58" t="s">
         <v>404</v>
       </c>
-      <c r="L58" t="s">
-        <v>405</v>
-      </c>
-      <c r="M58" t="s">
-        <v>406</v>
-      </c>
-      <c r="N58" t="s">
-        <v>407</v>
-      </c>
-      <c r="O58" t="s">
-        <v>408</v>
-      </c>
       <c r="P58" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>409</v>
-      </c>
-      <c r="R58" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59">
@@ -4695,40 +4665,40 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F59" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L59" t="s">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="M59" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="N59" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="O59" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60">
@@ -4745,40 +4715,34 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s">
-        <v>407</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O60" t="s">
-        <v>419</v>
-      </c>
-      <c r="P60" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61">
@@ -4795,34 +4759,40 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F61" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M61" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N61" t="s">
-        <v>254</v>
+        <v>157</v>
+      </c>
+      <c r="O61" t="s">
+        <v>418</v>
+      </c>
+      <c r="P61" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62">
@@ -4839,45 +4809,45 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F62" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G62" t="s">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="H62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K62" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="M62" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N62" t="s">
-        <v>386</v>
+        <v>131</v>
       </c>
       <c r="O62" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P62" t="s">
-        <v>389</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
@@ -4889,40 +4859,70 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
+        <v>424</v>
+      </c>
+      <c r="F63" t="s">
+        <v>425</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" t="s">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M63" t="s">
+        <v>427</v>
+      </c>
+      <c r="N63" t="s">
+        <v>168</v>
+      </c>
+      <c r="O63" t="s">
+        <v>428</v>
+      </c>
+      <c r="P63" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q63" t="s">
         <v>429</v>
       </c>
-      <c r="F63" t="s">
+      <c r="R63" t="s">
+        <v>68</v>
+      </c>
+      <c r="S63" t="s">
         <v>430</v>
       </c>
-      <c r="G63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" t="s">
-        <v>56</v>
-      </c>
-      <c r="J63" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="T63" t="s">
+        <v>110</v>
+      </c>
+      <c r="U63" t="s">
         <v>431</v>
       </c>
-      <c r="L63" t="s">
-        <v>369</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="V63" t="s">
+        <v>143</v>
+      </c>
+      <c r="W63" t="s">
         <v>432</v>
       </c>
-      <c r="N63" t="s">
-        <v>116</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="X63" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y63" t="s">
         <v>433</v>
       </c>
-      <c r="P63" t="s">
-        <v>254</v>
+      <c r="Z63" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -4945,33 +4945,33 @@
         <v>435</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s">
         <v>436</v>
       </c>
       <c r="L64" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="M64" t="s">
         <v>437</v>
       </c>
       <c r="N64" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -4989,52 +4989,34 @@
         <v>439</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s">
         <v>440</v>
       </c>
       <c r="L65" t="s">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s">
         <v>441</v>
       </c>
       <c r="N65" t="s">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="O65" t="s">
+        <v>443</v>
+      </c>
+      <c r="P65" t="s">
         <v>442</v>
-      </c>
-      <c r="P65" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>443</v>
-      </c>
-      <c r="R65" t="s">
-        <v>133</v>
-      </c>
-      <c r="S65" t="s">
-        <v>444</v>
-      </c>
-      <c r="T65" t="s">
-        <v>133</v>
-      </c>
-      <c r="U65" t="s">
-        <v>445</v>
-      </c>
-      <c r="V65" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="66">
@@ -5051,40 +5033,40 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
+        <v>444</v>
+      </c>
+      <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" t="s">
         <v>446</v>
       </c>
-      <c r="F66" t="s">
+      <c r="L66" t="s">
+        <v>385</v>
+      </c>
+      <c r="M66" t="s">
         <v>447</v>
       </c>
-      <c r="G66" t="s">
-        <v>384</v>
-      </c>
-      <c r="H66" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="N66" t="s">
+        <v>143</v>
+      </c>
+      <c r="O66" t="s">
         <v>448</v>
       </c>
-      <c r="L66" t="s">
-        <v>190</v>
-      </c>
-      <c r="M66" t="s">
-        <v>449</v>
-      </c>
-      <c r="N66" t="s">
-        <v>450</v>
-      </c>
-      <c r="O66" t="s">
-        <v>451</v>
-      </c>
       <c r="P66" t="s">
-        <v>450</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67">
@@ -5101,40 +5083,58 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>376</v>
+      </c>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67" t="s">
+        <v>451</v>
+      </c>
+      <c r="L67" t="s">
+        <v>143</v>
+      </c>
+      <c r="M67" t="s">
         <v>452</v>
       </c>
-      <c r="F67" t="s">
+      <c r="N67" t="s">
+        <v>63</v>
+      </c>
+      <c r="O67" t="s">
         <v>453</v>
       </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s">
-        <v>55</v>
-      </c>
-      <c r="I67" t="s">
-        <v>56</v>
-      </c>
-      <c r="J67" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="P67" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q67" t="s">
         <v>454</v>
       </c>
-      <c r="L67" t="s">
-        <v>190</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="R67" t="s">
+        <v>385</v>
+      </c>
+      <c r="S67" t="s">
         <v>455</v>
       </c>
-      <c r="N67" t="s">
-        <v>133</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="T67" t="s">
+        <v>143</v>
+      </c>
+      <c r="U67" t="s">
         <v>456</v>
       </c>
-      <c r="P67" t="s">
-        <v>184</v>
+      <c r="V67" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
